--- a/src/main/resources/Data/Data.xlsx
+++ b/src/main/resources/Data/Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Search</t>
   </si>
@@ -36,6 +36,15 @@
   </si>
   <si>
     <t>KOORUI Monitor de computadora de 24 pulgadas Full HD 1920 x 1080p, pantalla VA de 75 Hz 3000:1 relación de contraste con HDMI, VGA, sin marco, montaje VESA de 2.953 x 2.953 in, inclinación ergonómica, color negro</t>
+  </si>
+  <si>
+    <t>KOORUI Monitor de juegos FHD de 24.5 pulgadas, monitores de computadora Full HD (1920 x 1080), VA, 1ms, compatible con FreeSync y G-Sync, 2 HDMI (144 Hz) y DisplayPort (170 Hz), sRGB 99%, VESA, inclinación ajustable, cuidado de los ojos</t>
+  </si>
+  <si>
+    <t>KOORUI Monitor para juegos de 27 pulgadas, monitor de computadora WQHD (2560 x 1440), 240 Hz, 1 ms, desenfoque de movimiento extremadamente bajo, compatible con FreeSync G-sync, HDR 400,</t>
+  </si>
+  <si>
+    <t>KOORUI Monitor de computadora de 22 pulgadas, pantalla de escritorio FHD 1080P, bisel ultrafino/cuidado de los ojos/inclinación ergonómica, puertos HDMI VGA Monitor LED para PC, montaje VESA</t>
   </si>
 </sst>
 </file>
@@ -404,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Data/Data.xlsx
+++ b/src/main/resources/Data/Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>Search</t>
   </si>
@@ -51,6 +51,42 @@
   </si>
   <si>
     <t>KOORUI Monitor de juegos de 24 pulgadas, 165 Hz IPS 1080p 1 ms FreeSync G-sync compatible, sin marco, HDMI, DisplayPort, inclinación ajustable, cuidado de los ojos, montaje en pared VESA, negro</t>
+  </si>
+  <si>
+    <t>KOORUI Monitor de computadora de 24 pulgadas, monitores de PC FHD 1920 x 1080p, pantalla IPS 75Hz, HDMI, VGA, tiempo de respuesta de 5 ms, montaje VESA de 2.953 x 2.953 in, sin marco</t>
+  </si>
+  <si>
+    <t>KOORUI Monitor de 24 pulgadas, monitor de computadora LED Full HD 1080p IPS, monitor de computadora de escritorio ultra delgado de 75 Hz FHD 1920 x 1080 con HDMI, VGA, montaje VESA de 2.953 x 2.953 in, color negro</t>
+  </si>
+  <si>
+    <t>KOORUI Monitor de juegos de 21.5 pulgadas FHD 1080P/Full HD 100HZ Monitor de PC Panel VA Pantalla LCD con altavoces FreeSync G-SYNC Compatible (compatible con HDMI/VGA/VESA/Terminal de audio) S01</t>
+  </si>
+  <si>
+    <t>KOORUI Monitor de computadora de 24 pulgadas -FHD 1080P Monitor para juegos 165Hz VA 1ms FreeSync integrado, compatible con G-sync, monitores LED con ultrafino, HDMI X2/DP, compatible con VESA, inclinación ajustable, cuidado de los ojos 24E4</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Acer SB220Q bi - Monitor de 21.5 pulgadas Full HD (1920 x 1080), monitor IPS Ultra delgado, diseño Zero Frame sin marco (puertos HDMI y VGA), color negro</t>
+  </si>
+  <si>
+    <t>KOORUI Monitor de juegos QHD de 27 pulgadas 144 Hz, VA, 1 ms, DCI-P3 gama de colores del 90%, compatible con FreeSync G-Sync, (2560 x 1440, HDMI, DisplayPort) Negro</t>
+  </si>
+  <si>
+    <t>KOORUI Monitores de computadora de 27 pulgadas, 4K UHD (3840 x 2160) monitores IPS para juegos, HDR10, 90% DCI-P3, sin marco, 2 HDMI 2.0 y DisplayPort 1.4, montaje VESA, protección ocular</t>
+  </si>
+  <si>
+    <t>KOORUI Monitor de computadora de 24 pulgadas -FHD 1080P Monitor de juegos 165Hz VA 1ms 1800R Monitores LED con ultrafino, HDMI X2/DP, compatible con VESA, inclinación ajustable, cuidado de los ojos</t>
+  </si>
+  <si>
+    <t>SANSUI Monitor de 24 pulgadas 100Hz IPS USB Type-C FHD 1080P Pantalla de computadora Altavoces incorporados HDMI DP HDR10 Juego RTS/FPS Inclinación ajustable para trabajar y juegos (ES-24X3 Cable tipo C y cable HDMI incluidos)</t>
+  </si>
+  <si>
+    <t>SANSUI Monitor de 22 pulgadas IPS 75Hz FHD 1080P HDMI VGA Puertos Monitor de computadora Monitor de computadora de inclinación ultrafina ajustable VESA Montaje Compatible con Eye Comfort 178° Amplio ángulo de visión para juegos y oficina</t>
+  </si>
+  <si>
+    <t>KOORUI Monitor de juegos de 24 pulgadas, monitor de computadora FHD 1080P de 165 Hz VA 1 ms integrado FreeSync, compatible con G-sync, monitores LED con ultrafino, compatible con HDMI X2/DP, VESA, cuidado de los ojos 24E4, negro</t>
   </si>
 </sst>
 </file>
@@ -419,7 +455,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Data/Data.xlsx
+++ b/src/main/resources/Data/Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>Search</t>
   </si>
@@ -87,6 +87,21 @@
   </si>
   <si>
     <t>KOORUI Monitor de juegos de 24 pulgadas, monitor de computadora FHD 1080P de 165 Hz VA 1 ms integrado FreeSync, compatible con G-sync, monitores LED con ultrafino, compatible con HDMI X2/DP, VESA, cuidado de los ojos 24E4, negro</t>
+  </si>
+  <si>
+    <t>Acer Nitro KG241Y Sbiip Monitor para juegos VA Full HD (1920 x 1080) de 23.8 pulgadas | Tecnología AMD FreeSync Premium | Frecuencia de actualización de 165 Hz | 1 ms (VRB) | Diseño ZeroFrame | 1 puerto de pantalla 1.2 y 2 x HDMI 2.0</t>
+  </si>
+  <si>
+    <t>KOORUI Monitor de computadora de 27 pulgadas, FHD 1920 x 1080p, monitor IPS de 75 Hz, HDMI, VGA, montaje VESA de 2.953 x 2.953 in, sin marco, protección ocular y ajuste ergonómico de inclinación</t>
+  </si>
+  <si>
+    <t>KOORUI Monitor de juegos de 27 pulgadas, QHD (2560 x 1440), monitores de computadora giratorios verticales, 144 Hz/170Hz, IPS, 1 ms, HDR 400, sincronización adpitiva, 2 monitores HDMI y DisplayPort 2K, altura ajustable</t>
+  </si>
+  <si>
+    <t>KOORUI 24 Inch Curved Computer Monitor, 60Hz 1080p FHD Desktop Monitor VA Panel with HDMI VGA Ports Free Flicker Low BlueLight, sRGB 99% Led Monitor for PC Home Office, VESA Compatible Black (24N5C)</t>
+  </si>
+  <si>
+    <t>KOORUI Monitor curvo ultra ancho de 34 pulgadas para juegos 165HZ, 1ms, 1000R, WQHD 3440 x 1440, 21:9, DCI-P3 90% de gama de colores, compatible con FreeSync G-Sync, soporte ajustable de inclinación/altura, HDMI, puerto de pantalla, negro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +470,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Data/Data.xlsx
+++ b/src/main/resources/Data/Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>Search</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>KOORUI Monitor curvo ultra ancho de 34 pulgadas para juegos 165HZ, 1ms, 1000R, WQHD 3440 x 1440, 21:9, DCI-P3 90% de gama de colores, compatible con FreeSync G-Sync, soporte ajustable de inclinación/altura, HDMI, puerto de pantalla, negro</t>
+  </si>
+  <si>
+    <t>KOORUI Monitor de computadora de 22 pulgadas, pantalla de escritorio FHD 1080P, bisel ultrafino/cuidado de los ojos/inclinación ergonómica, puertos HDMI VGA</t>
   </si>
 </sst>
 </file>
@@ -470,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Data/Data.xlsx
+++ b/src/main/resources/Data/Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
   <si>
     <t>Search</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>KOORUI Monitor de computadora de 22 pulgadas, pantalla de escritorio FHD 1080P, bisel ultrafino/cuidado de los ojos/inclinación ergonómica, puertos HDMI VGA</t>
+  </si>
+  <si>
+    <t>KOORUI QHD - Monitor curvado de 27 pulgadas, monitor rápido para juegos de computadora VA (2560 x 1440P, R1800, 144Hz, 1ms, DCI-P3 85%, DP+HDMI, modo de juego, protección ocular, botón basculante), bisel estrecho</t>
   </si>
 </sst>
 </file>
@@ -473,7 +476,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Data/Data.xlsx
+++ b/src/main/resources/Data/Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
   <si>
     <t>Search</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>KOORUI QHD - Monitor curvado de 27 pulgadas, monitor rápido para juegos de computadora VA (2560 x 1440P, R1800, 144Hz, 1ms, DCI-P3 85%, DP+HDMI, modo de juego, protección ocular, botón basculante), bisel estrecho</t>
+  </si>
+  <si>
+    <t>Sceptre E205W-16003R - Monitor LED ultradelgado sin marco, con HDMI, VGA, altavoces integrados, color negro metálico 2018</t>
   </si>
 </sst>
 </file>
@@ -476,7 +479,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Data/Data.xlsx
+++ b/src/main/resources/Data/Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
   <si>
     <t>Search</t>
   </si>
@@ -479,7 +479,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
